--- a/doc/product_methods_information/HS3说明文档.xlsx
+++ b/doc/product_methods_information/HS3说明文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Po使用说明文档" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>调用方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,12 +191,19 @@
     <t>HS3的使用说明文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ONLINE_RESULT_HS          结果数据</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +266,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -366,12 +381,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -384,12 +405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,8 +413,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -916,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -935,33 +950,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="29" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
@@ -1152,28 +1167,28 @@
       <c r="K16" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="38" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -1181,18 +1196,18 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="31" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1208,18 +1223,18 @@
       <c r="H20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="40" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1231,73 +1246,79 @@
       <c r="F21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="65" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="92" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="53" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="22"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="154" customHeight="1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="B25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="122" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -1406,12 +1427,6 @@
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D22:D24"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G21:G25"/>
@@ -1425,6 +1440,12 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
